--- a/sources/Chechen_data.xlsx
+++ b/sources/Chechen_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="772">
   <si>
     <t>language_no</t>
   </si>
@@ -2016,350 +2016,335 @@
     <t>GEN_ABS</t>
   </si>
   <si>
-    <t>Видимо, это разные составляющие</t>
-  </si>
-  <si>
-    <r>
-      <t>"быть" (он же используется в 18 "держать" и 38 "иметь"). Возможна рамка DAT-ABS (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>qietta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, NO AGR) для ингрессивной конструкции (заразился)</t>
-    </r>
-  </si>
-  <si>
     <t>ABS_LAT</t>
   </si>
   <si>
-    <t>PREF (away)</t>
-  </si>
-  <si>
     <t>DAT_ABS</t>
   </si>
   <si>
-    <t>NV. С отрицанием тот же глагол в 64 ("отличаться")</t>
-  </si>
-  <si>
-    <t>То же, что 114 (доверять)</t>
-  </si>
-  <si>
-    <t>PREF (here)</t>
-  </si>
-  <si>
-    <t>Нет адекватного перевода</t>
-  </si>
-  <si>
-    <t>CV (against strike). Такая рамка именно при случайной встрече</t>
-  </si>
-  <si>
     <t>ABS_DATchu</t>
   </si>
   <si>
-    <t>Именно в случае со словом "дом" показателя датива нет, с другим словами он был бы. Послелог chu глоссируется как inside. Кажется, этот же глагол используется в случае с "тонуть" (104)</t>
-  </si>
-  <si>
     <t>ABS_chura</t>
   </si>
   <si>
-    <t>PREF (out)</t>
-  </si>
-  <si>
-    <t>CV(2-stem, bend-make)</t>
-  </si>
-  <si>
     <t>ERG_ALL</t>
   </si>
   <si>
     <t>ALL_ABS</t>
   </si>
   <si>
-    <t>"быть" (он же используется в 2 "болеть-2" и 38 "иметь")</t>
-  </si>
-  <si>
     <t>ABS_DAT</t>
   </si>
   <si>
-    <t>букв. "pull"</t>
-  </si>
-  <si>
     <t>ABS_ALL</t>
   </si>
   <si>
     <t>ERG_LAT</t>
   </si>
   <si>
-    <t>Обязательно указывается то, чем коснулся (например, рука в абсолютиве)</t>
-  </si>
-  <si>
-    <t>CVB+be</t>
-  </si>
-  <si>
-    <t>Только именная конструкция (X -- друг Y-а), единая составляющая, не засчитываю</t>
-  </si>
-  <si>
-    <t>CVB+be, букв. "видеть"</t>
-  </si>
-  <si>
-    <t>Это, видимо, аспектуальная форма того же глагола, что в конструкции 33 (знать)</t>
-  </si>
-  <si>
-    <t>Это, видимо, аспектуальная форма того же глагола, что в конструкции 32 (знакомиться)</t>
-  </si>
-  <si>
-    <t>Если прогрессив, то будет биабсолютивная конструкция</t>
-  </si>
-  <si>
-    <t>Это итеративная форма глагола "идти"</t>
-  </si>
-  <si>
-    <t>Этот же глагол используется в значении "рожать" (85)</t>
-  </si>
-  <si>
-    <t>CAUS (от "вертеться")</t>
-  </si>
-  <si>
-    <t>"быть" (он же используется в 2 "болеть-2" и 18 "держать"). Посессор и обладаемое разрываются</t>
-  </si>
-  <si>
-    <t>Есть биабсолютивная конструкция для прогрессива</t>
-  </si>
-  <si>
-    <t>CV ("краску мажет")</t>
-  </si>
-  <si>
     <t>ERG_DAT</t>
   </si>
   <si>
-    <t>CV (bite hit)</t>
-  </si>
-  <si>
-    <t>Только сложная конструкция "Ислам остался дома-нет будучи"</t>
-  </si>
-  <si>
-    <t>CV(2-stem, break-make)</t>
-  </si>
-  <si>
-    <t>Это каузатив (boast-CAUS)</t>
-  </si>
-  <si>
-    <t>То же, что любить-2 (119), хотеть (121) и (не включенный в базу) мечтать (48)</t>
-  </si>
-  <si>
-    <t>CV(2-stem, shake-make)</t>
-  </si>
-  <si>
-    <t>Получен только перевод, который одновременно значит "любить" и "хотеть", то есть собственно "мечтать" тут не выразить</t>
-  </si>
-  <si>
-    <t>PREF (on)</t>
-  </si>
-  <si>
-    <t>NV (X-а имя есть Y). Я тут условно написал, что есть согласование. На самом деле согласование его вызывает само слово "имя", а не "компас", который в абсолютиве</t>
-  </si>
-  <si>
-    <t>Нет способа выразить общее значение, только "отругал" или "побил"</t>
-  </si>
-  <si>
-    <t>NEG+быть.достаточно (=5)</t>
-  </si>
-  <si>
-    <t>NEG+любить (=46)</t>
-  </si>
-  <si>
-    <t>NV (around + be)</t>
-  </si>
-  <si>
-    <t>CV (answer + give). Согласование вызывает внутренний аргумент, "ответ". Получен альетрантивный вариант (ERG-ALL)</t>
-  </si>
-  <si>
-    <t>NV (similar + is.not). Без отрицания тот же глагол в 6 ("быть похожим")</t>
-  </si>
-  <si>
     <t>ABS_COMP</t>
   </si>
   <si>
-    <t>PREF (behind)</t>
-  </si>
-  <si>
-    <t>руки-LAT бензин-GEN запах идет (при этом "бензин" и "запах", похоже, образуют единую составляющую). Глагол "идти" есть в конструкции 73</t>
-  </si>
-  <si>
-    <t>CV (other.side get)</t>
-  </si>
-  <si>
-    <t>CAUS</t>
-  </si>
-  <si>
     <t>ABS_INSTR</t>
   </si>
   <si>
-    <t>Это буквально "идти" (этот же глагол используется в конструкции 67, пахнуть)</t>
-  </si>
-  <si>
     <t>ABS_ABL</t>
   </si>
   <si>
-    <t>heart-AGR-come</t>
-  </si>
-  <si>
-    <t>CV (help make)</t>
-  </si>
-  <si>
-    <t>букв. "ударить". Тот же глагол, что в 79, но в другой форме</t>
-  </si>
-  <si>
-    <t>Тот же глагол, что в 78, но в другой форме.</t>
-  </si>
-  <si>
-    <t>Обычно так не говорят, не называют то, обо что порезался</t>
-  </si>
-  <si>
-    <t>По сути перевод не получен. Можно либо использовать конверсив (выиграть); либо сказать просто "проиграл" без указания победителя. Зарина написала, что как будто бы победитель при глаголе "проиграть" должен быть выражен дативом, но сама же далее пишет "мне не совсем нравится этот пример. Без ДАТ ок, а вот с ДАТ". И это подтверждено кем-то еще, кого она опросила.</t>
-  </si>
-  <si>
-    <t>Затруднительно выразить нужное значение. Второй актант -- "тому, что пришло письмо"</t>
-  </si>
-  <si>
     <t>ERG_INSTR</t>
   </si>
   <si>
-    <t>CV (talk make); в случае прогрессива первый участник в абсолютиве</t>
-  </si>
-  <si>
-    <t>букв. "делать", то же, что 36</t>
-  </si>
-  <si>
-    <t>PREF (down)</t>
-  </si>
-  <si>
-    <t>Это NV, где Y -- часть именного предиката (руководитель деревни)</t>
-  </si>
-  <si>
-    <t>CV (soul get.tight)</t>
-  </si>
-  <si>
-    <t>behind-AGR-go. Не совсем ясно, что такое behind -- преверб, наречие или послелог</t>
-  </si>
-  <si>
     <t>ABS_gour</t>
   </si>
   <si>
-    <t>То же, что 92 и 93</t>
-  </si>
-  <si>
-    <t>То же, что 91 и 93</t>
-  </si>
-  <si>
-    <t>То же, что 91 и 92</t>
-  </si>
-  <si>
-    <t>CV (in.dream go)</t>
-  </si>
-  <si>
     <t>XY</t>
   </si>
   <si>
     <t>GEN_INSTR</t>
   </si>
   <si>
-    <t>CV (fight get)</t>
-  </si>
-  <si>
-    <t>NV (Х-а Y price is). Я тут условно написал, что есть согласование. На самом деле согласование его вызывает само слово "цена", а не "столько-то рублей", что закодировано в абсолютиве</t>
-  </si>
-  <si>
-    <t>CV (weapon hit)</t>
-  </si>
-  <si>
     <t>ABS_buxa</t>
   </si>
   <si>
-    <t>просто "уйти" (то же, что 12?)</t>
-  </si>
-  <si>
-    <t>CV (mouth take)</t>
-  </si>
-  <si>
-    <t>CV (disgusting seem)</t>
-  </si>
-  <si>
-    <t>NV (satisfied be)</t>
-  </si>
-  <si>
-    <t>То же, что 7 (верить)</t>
-  </si>
-  <si>
     <t>DAT_LAT</t>
   </si>
   <si>
-    <t>NV (jealousy be). Согласование вызывает слово "зависть"</t>
-  </si>
-  <si>
-    <t>То же, что 122 (сердиться) (засчитанный), а также 123 (обижаться) и 128 (раздражаться) (не засчитанный). angry-AGR-go (еще получен экзотический диалектный вариант с моделью, внимание, DAT-DAT)</t>
-  </si>
-  <si>
-    <t>То же, что любить-1 (46), хотеть (121) и (не включенный в базу) мечтать (48)</t>
-  </si>
-  <si>
-    <t>Перевод не получен (Зарина знает только в пожеланиях)</t>
-  </si>
-  <si>
-    <t>То же, что любить-1 (46), любить-2 (119) и (не включенный в базу) мечтать (48)</t>
-  </si>
-  <si>
-    <t>То же, что 117 (злиться) (засчитанный), а также 123 (обижаться) и 128 (раздражаться) (не засчитанные). angry-AGR-go (еще получен экзотический диалектный вариант с моделью, внимание, DAT-DAT)</t>
-  </si>
-  <si>
-    <t>Не засчитываю, потому что эта же конструкция еще в трех случаях, и только двум из них (117 (злиться), и 122 (сердиться)) она соответствует хорошо, а вот этому и 128 (раздражаться) не так хорошо</t>
-  </si>
-  <si>
-    <t>Пока получается только что-то вроде "не любить"</t>
-  </si>
-  <si>
     <t>ABS_DATdoeha</t>
   </si>
   <si>
-    <t>Пока не получается выразить второго участника, потом получена странная диалектная конструкция с двумя дативами, которую я в других случаях не засчитываю. Возможно, еще будет какое-то уточнение, если нет, то ничего не засчитаю</t>
-  </si>
-  <si>
-    <t>Не засчитываю, потому что эта же конструкция еще в трех случаях, и только двум из них (117 (злиться), и 122 (сердиться)) она соответствует хорошо, а вот этому и 123 (обижаться) не так хорошо</t>
-  </si>
-  <si>
-    <t>Точного перевода не получено, только "нравиться" или что-то более развернутое</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes </t>
-  </si>
-  <si>
-    <t>Agreement: no</t>
+    <t>Agreement: no. Видимо, это разные составляющие</t>
+  </si>
+  <si>
+    <t>Agreement: yes. "быть" (он же используется в 18 "держать" и 38 "иметь"). Возможна рамка DAT-ABS (qietta, NO AGR) для ингрессивной конструкции (заразился)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agreement: no. </t>
+  </si>
+  <si>
+    <t>Agreement: no. PREF (away)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. NV. С отрицанием тот же глагол в 64 ("отличаться")</t>
+  </si>
+  <si>
+    <t>Agreement: no. То же, что 114 (доверять)</t>
+  </si>
+  <si>
+    <t>Agreement: no. PREF (here)</t>
+  </si>
+  <si>
+    <t>Agreement: *. Нет адекватного перевода</t>
+  </si>
+  <si>
+    <t>Agreement: no. CV (against strike). Такая рамка именно при случайной встрече</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Именно в случае со словом "дом" показателя датива нет, с другим словами он был бы. Послелог chu глоссируется как inside. Кажется, этот же глагол используется в случае с "тонуть" (104)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (out)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV(2-stem, bend-make)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. "быть" (он же используется в 2 "болеть-2" и 38 "иметь")</t>
+  </si>
+  <si>
+    <t>Agreement: no. букв. "pull"</t>
+  </si>
+  <si>
+    <t>Agreement: no. Обязательно указывается то, чем коснулся (например, рука в абсолютиве)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CVB+be</t>
+  </si>
+  <si>
+    <t>Agreement: *. Только именная конструкция (X -- друг Y-а), единая составляющая, не засчитываю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agreement: yes. </t>
+  </si>
+  <si>
+    <t>Agreement: yes. CVB+be, букв. "видеть"</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Это, видимо, аспектуальная форма того же глагола, что в конструкции 33 (знать)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Это, видимо, аспектуальная форма того же глагола, что в конструкции 32 (знакомиться)</t>
+  </si>
+  <si>
+    <t>Agreement: no. Если прогрессив, то будет биабсолютивная конструкция</t>
+  </si>
+  <si>
+    <t>Agreement: no. Это итеративная форма глагола "идти"</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Этот же глагол используется в значении "рожать" (85)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CAUS (от "вертеться")</t>
+  </si>
+  <si>
+    <t>Agreement: yes. "быть" (он же используется в 2 "болеть-2" и 18 "держать"). Посессор и обладаемое разрываются</t>
+  </si>
+  <si>
+    <t>Agreement: no. Есть биабсолютивная конструкция для прогрессива</t>
+  </si>
+  <si>
+    <t>Agreement: no. CV ("краску мажет")</t>
+  </si>
+  <si>
+    <t>Agreement: no. CV (bite hit)</t>
+  </si>
+  <si>
+    <t>Agreement: *. Только сложная конструкция "Ислам остался дома-нет будучи"</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV(2-stem, break-make)</t>
+  </si>
+  <si>
+    <t>Agreement: no. Это каузатив (boast-CAUS)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. То же, что любить-2 (119), хотеть (121) и (не включенный в базу) мечтать (48)</t>
+  </si>
+  <si>
+    <t>Agreement: no. CV(2-stem, shake-make)</t>
+  </si>
+  <si>
+    <t>Agreement: *. Получен только перевод, который одновременно значит "любить" и "хотеть", то есть собственно "мечтать" тут не выразить</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (on)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. NV (X-а имя есть Y). Я тут условно написал, что есть согласование. На самом деле согласование его вызывает само слово "имя", а не "компас", который в абсолютиве</t>
+  </si>
+  <si>
+    <t>Agreement: *. Нет способа выразить общее значение, только "отругал" или "побил"</t>
+  </si>
+  <si>
+    <t>Agreement: no. PREF (on)</t>
+  </si>
+  <si>
+    <t>Agreement: no. NEG+быть.достаточно (=5)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. NEG+любить (=46)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. NV (around + be)</t>
+  </si>
+  <si>
+    <t>Agreement: yes . CV (answer + give). Согласование вызывает внутренний аргумент, "ответ". Получен альетрантивный вариант (ERG-ALL)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (here)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. NV (similar + is.not). Без отрицания тот же глагол в 6 ("быть похожим")</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (behind)</t>
+  </si>
+  <si>
+    <t>Agreement: *. руки-LAT бензин-GEN запах идет (при этом "бензин" и "запах", похоже, образуют единую составляющую). Глагол "идти" есть в конструкции 73</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV (other.side get)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CAUS</t>
+  </si>
+  <si>
+    <t>Agreement: yes. Это буквально "идти" (этот же глагол используется в конструкции 67, пахнуть)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (away)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. heart-AGR-come</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV (help make)</t>
+  </si>
+  <si>
+    <t>Agreement: no. букв. "ударить". Тот же глагол, что в 79, но в другой форме</t>
+  </si>
+  <si>
+    <t>Agreement: no. Тот же глагол, что в 78, но в другой форме.</t>
+  </si>
+  <si>
+    <t>Agreement: *. Обычно так не говорят, не называют то, обо что порезался</t>
+  </si>
+  <si>
+    <t>Agreement: *. По сути перевод не получен. Можно либо использовать конверсив (выиграть); либо сказать просто "проиграл" без указания победителя. Зарина написала, что как будто бы победитель при глаголе "проиграть" должен быть выражен дативом, но сама же далее пишет "мне не совсем нравится этот пример. Без ДАТ ок, а вот с ДАТ". И это подтверждено кем-то еще, кого она опросила.</t>
+  </si>
+  <si>
+    <t>Agreement: no. Затруднительно выразить нужное значение. Второй актант -- "тому, что пришло письмо"</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV (talk make); в случае прогрессива первый участник в абсолютиве</t>
+  </si>
+  <si>
+    <t>Agreement: yes. букв. "делать", то же, что 36</t>
+  </si>
+  <si>
+    <t>Agreement: yes. PREF (down)</t>
+  </si>
+  <si>
+    <t>Agreement: *. Это NV, где Y -- часть именного предиката (руководитель деревни)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV (soul get.tight)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. behind-AGR-go. Не совсем ясно, что такое behind -- преверб, наречие или послелог</t>
+  </si>
+  <si>
+    <t>Agreement: no. То же, что 92 и 93</t>
+  </si>
+  <si>
+    <t>Agreement: no. То же, что 91 и 93</t>
+  </si>
+  <si>
+    <t>Agreement: no. То же, что 91 и 92</t>
+  </si>
+  <si>
+    <t>Agreement: no. CV (in.dream go)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV (fight get)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. NV (Х-а Y price is). Я тут условно написал, что есть согласование. На самом деле согласование его вызывает само слово "цена", а не "столько-то рублей", что закодировано в абсолютиве</t>
+  </si>
+  <si>
+    <t>Agreement: no. CV (weapon hit)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. просто "уйти" (то же, что 12?)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. CV (mouth take)</t>
+  </si>
+  <si>
+    <t>Agreement: no. CV (disgusting seem)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. NV (satisfied be)</t>
+  </si>
+  <si>
+    <t>Agreement: no. То же, что 7 (верить)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. NV (jealousy be). Согласование вызывает слово "зависть"</t>
+  </si>
+  <si>
+    <t>Agreement: yes. То же, что 122 (сердиться) (засчитанный), а также 123 (обижаться) и 128 (раздражаться) (не засчитанный). angry-AGR-go (еще получен экзотический диалектный вариант с моделью, внимание, DAT-DAT)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. То же, что любить-1 (46), хотеть (121) и (не включенный в базу) мечтать (48)</t>
+  </si>
+  <si>
+    <t>Agreement: *. Перевод не получен (Зарина знает только в пожеланиях)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. То же, что любить-1 (46), любить-2 (119) и (не включенный в базу) мечтать (48)</t>
+  </si>
+  <si>
+    <t>Agreement: yes. То же, что 117 (злиться) (засчитанный), а также 123 (обижаться) и 128 (раздражаться) (не засчитанные). angry-AGR-go (еще получен экзотический диалектный вариант с моделью, внимание, DAT-DAT)</t>
+  </si>
+  <si>
+    <t>Agreement: *. Не засчитываю, потому что эта же конструкция еще в трех случаях, и только двум из них (117 (злиться), и 122 (сердиться)) она соответствует хорошо, а вот этому и 128 (раздражаться) не так хорошо</t>
+  </si>
+  <si>
+    <t>Agreement: no. CAUS</t>
+  </si>
+  <si>
+    <t>Agreement: *. Пока получается только что-то вроде "не любить"</t>
+  </si>
+  <si>
+    <t>Agreement: no. Пока не получается выразить второго участника, потом получена странная диалектная конструкция с двумя дативами, которую я в других случаях не засчитываю. Возможно, еще будет какое-то уточнение, если нет, то ничего не засчитаю</t>
+  </si>
+  <si>
+    <t>Agreement: *. Не засчитываю, потому что эта же конструкция еще в трех случаях, и только двум из них (117 (злиться), и 122 (сердиться)) она соответствует хорошо, а вот этому и 123 (обижаться) не так хорошо</t>
+  </si>
+  <si>
+    <t>Agreement: *. Точного перевода не получено, только "нравиться" или что-то более развернутое</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2376,19 +2361,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -2741,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="F111" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2864,19 +2836,17 @@
       <c r="L2" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>664</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>78</v>
       </c>
@@ -2913,16 +2883,14 @@
       <c r="L3" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>665</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7" t="s">
-        <v>767</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2960,7 +2928,7 @@
         <v>9</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2969,7 +2937,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2998,25 +2966,25 @@
         <v>542</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K5" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>667</v>
-      </c>
+      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7" t="s">
-        <v>766</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3054,7 +3022,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -3063,7 +3031,7 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3101,18 +3069,16 @@
         <v>9</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>669</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7" t="s">
-        <v>767</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3150,18 +3116,16 @@
         <v>9</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>670</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7" t="s">
-        <v>766</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3190,25 +3154,25 @@
         <v>548</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K9" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>671</v>
-      </c>
+      <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7" t="s">
-        <v>766</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3246,7 +3210,7 @@
         <v>8</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -3255,7 +3219,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3286,21 +3250,21 @@
       <c r="I11" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="K11" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>672</v>
-      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7" t="s">
-        <v>550</v>
+        <v>691</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3338,18 +3302,16 @@
         <v>8</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>673</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7" t="s">
-        <v>766</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3387,18 +3349,16 @@
         <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>675</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7" t="s">
-        <v>767</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3427,9 +3387,11 @@
         <v>554</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K14" s="5" t="s">
         <v>543</v>
       </c>
@@ -3443,7 +3405,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3481,18 +3443,16 @@
         <v>9</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>677</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3521,25 +3481,25 @@
         <v>557</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>667</v>
-      </c>
+      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7" t="s">
-        <v>766</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3568,25 +3528,25 @@
         <v>558</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>678</v>
-      </c>
+      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7" t="s">
-        <v>767</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3624,7 +3584,7 @@
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -3633,7 +3593,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3671,18 +3631,16 @@
         <v>8</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7" t="s">
-        <v>767</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3720,7 +3678,7 @@
         <v>9</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -3729,7 +3687,7 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3758,25 +3716,25 @@
         <v>563</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>683</v>
-      </c>
+      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7" t="s">
-        <v>766</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3814,7 +3772,7 @@
         <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -3823,7 +3781,7 @@
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3861,18 +3819,16 @@
         <v>9</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>686</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7" t="s">
-        <v>766</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3910,18 +3866,16 @@
         <v>9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>687</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7" t="s">
-        <v>767</v>
+        <v>699</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3952,21 +3906,21 @@
       <c r="I25" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="K25" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L25" s="5"/>
-      <c r="M25" s="5" t="s">
-        <v>688</v>
-      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7" t="s">
-        <v>550</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4004,7 +3958,7 @@
         <v>8</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -4013,7 +3967,7 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4042,9 +3996,11 @@
         <v>569</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K27" s="5" t="s">
         <v>543</v>
       </c>
@@ -4058,7 +4014,7 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7" t="s">
-        <v>767</v>
+        <v>701</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4087,9 +4043,11 @@
         <v>570</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K28" s="5" t="s">
         <v>543</v>
       </c>
@@ -4103,7 +4061,7 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4141,18 +4099,16 @@
         <v>9</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>689</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7" t="s">
-        <v>767</v>
+        <v>702</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4190,7 +4146,7 @@
         <v>8</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -4199,7 +4155,7 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7" t="s">
-        <v>767</v>
+        <v>701</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4237,18 +4193,16 @@
         <v>9</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>689</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7" t="s">
-        <v>767</v>
+        <v>702</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4286,7 +4240,7 @@
         <v>9</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -4295,7 +4249,7 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4333,18 +4287,16 @@
         <v>8</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>690</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7" t="s">
-        <v>767</v>
+        <v>703</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4373,25 +4325,25 @@
         <v>576</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M34" s="5" t="s">
-        <v>691</v>
-      </c>
+      <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7" t="s">
-        <v>767</v>
+        <v>704</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4420,25 +4372,25 @@
         <v>577</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J35" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K35" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>692</v>
-      </c>
+      <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7" t="s">
-        <v>766</v>
+        <v>705</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4476,18 +4428,16 @@
         <v>9</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>693</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7" t="s">
-        <v>766</v>
+        <v>706</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4516,25 +4466,25 @@
         <v>579</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K37" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>694</v>
-      </c>
+      <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7" t="s">
-        <v>767</v>
+        <v>707</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4563,25 +4513,25 @@
         <v>580</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J38" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K38" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>695</v>
-      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7" t="s">
-        <v>767</v>
+        <v>708</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4621,16 +4571,14 @@
       <c r="L39" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>696</v>
-      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7" t="s">
-        <v>767</v>
+        <v>709</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4659,25 +4607,25 @@
         <v>581</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K40" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M40" s="5" t="s">
-        <v>697</v>
-      </c>
+      <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7" t="s">
-        <v>766</v>
+        <v>710</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4715,18 +4663,16 @@
         <v>9</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>698</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7" t="s">
-        <v>766</v>
+        <v>711</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4764,18 +4710,16 @@
         <v>9</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>700</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7" t="s">
-        <v>766</v>
+        <v>712</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4806,21 +4750,21 @@
       <c r="I43" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="J43" s="5"/>
+      <c r="J43" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="K43" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L43" s="5"/>
-      <c r="M43" s="5" t="s">
-        <v>701</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7" t="s">
-        <v>550</v>
+        <v>713</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4849,25 +4793,25 @@
         <v>584</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K44" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M44" s="5" t="s">
-        <v>697</v>
-      </c>
+      <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7" t="s">
-        <v>766</v>
+        <v>710</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4896,25 +4840,25 @@
         <v>585</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K45" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M45" s="5" t="s">
-        <v>702</v>
-      </c>
+      <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7" t="s">
-        <v>767</v>
+        <v>714</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4943,25 +4887,25 @@
         <v>586</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J46" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K46" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M46" s="5" t="s">
-        <v>703</v>
-      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7" t="s">
-        <v>766</v>
+        <v>715</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4999,18 +4943,16 @@
         <v>8</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>704</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7" t="s">
-        <v>767</v>
+        <v>716</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5039,25 +4981,25 @@
         <v>588</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J48" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K48" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>705</v>
-      </c>
+      <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7" t="s">
-        <v>766</v>
+        <v>717</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5088,21 +5030,21 @@
       <c r="I49" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="J49" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="K49" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L49" s="5"/>
-      <c r="M49" s="5" t="s">
-        <v>706</v>
-      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7" t="s">
-        <v>550</v>
+        <v>718</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5131,9 +5073,11 @@
         <v>589</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K50" s="5" t="s">
         <v>543</v>
       </c>
@@ -5147,7 +5091,7 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5176,25 +5120,25 @@
         <v>590</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K51" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M51" s="5" t="s">
-        <v>707</v>
-      </c>
+      <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7" t="s">
-        <v>767</v>
+        <v>719</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5234,16 +5178,14 @@
       <c r="L52" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>708</v>
-      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7" t="s">
-        <v>767</v>
+        <v>720</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5274,21 +5216,21 @@
       <c r="I53" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="J53" s="5"/>
+      <c r="J53" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="K53" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L53" s="5"/>
-      <c r="M53" s="5" t="s">
-        <v>709</v>
-      </c>
+      <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7" t="s">
-        <v>550</v>
+        <v>721</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5326,18 +5268,16 @@
         <v>9</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>707</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="7" t="s">
-        <v>766</v>
+        <v>722</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5375,7 +5315,7 @@
         <v>9</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -5384,7 +5324,7 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7" t="s">
-        <v>767</v>
+        <v>701</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5422,7 +5362,7 @@
         <v>8</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -5431,7 +5371,7 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5469,18 +5409,16 @@
         <v>8</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>710</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7" t="s">
-        <v>766</v>
+        <v>723</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5518,18 +5456,16 @@
         <v>8</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="M58" s="5" t="s">
-        <v>711</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
       <c r="S58" s="7" t="s">
-        <v>767</v>
+        <v>724</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5567,7 +5503,7 @@
         <v>8</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -5576,7 +5512,7 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5614,7 +5550,7 @@
         <v>8</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
@@ -5623,7 +5559,7 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5661,18 +5597,16 @@
         <v>8</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>712</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="7" t="s">
-        <v>767</v>
+        <v>725</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5710,7 +5644,7 @@
         <v>8</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
@@ -5719,7 +5653,7 @@
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="7" t="s">
-        <v>767</v>
+        <v>701</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5757,18 +5691,16 @@
         <v>9</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>713</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="7" t="s">
-        <v>768</v>
+        <v>726</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5797,25 +5729,25 @@
         <v>602</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K64" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M64" s="5" t="s">
-        <v>671</v>
-      </c>
+      <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="7" t="s">
-        <v>767</v>
+        <v>727</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5853,18 +5785,16 @@
         <v>9</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>714</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="7" t="s">
-        <v>767</v>
+        <v>728</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5902,18 +5832,16 @@
         <v>9</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>716</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="7" t="s">
-        <v>767</v>
+        <v>729</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5942,9 +5870,11 @@
         <v>606</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K67" s="5" t="s">
         <v>543</v>
       </c>
@@ -5958,7 +5888,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5989,21 +5919,21 @@
       <c r="I68" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="J68" s="5"/>
+      <c r="J68" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="K68" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L68" s="5"/>
-      <c r="M68" s="5" t="s">
-        <v>717</v>
-      </c>
+      <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="7" t="s">
-        <v>550</v>
+        <v>730</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6041,18 +5971,16 @@
         <v>9</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>718</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
       <c r="S69" s="7" t="s">
-        <v>767</v>
+        <v>731</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6081,9 +6009,11 @@
         <v>609</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K70" s="5" t="s">
         <v>543</v>
       </c>
@@ -6097,7 +6027,7 @@
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
       <c r="S70" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6126,25 +6056,25 @@
         <v>610</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K71" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L71" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M71" s="5" t="s">
-        <v>719</v>
-      </c>
+      <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="7" t="s">
-        <v>767</v>
+        <v>732</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6173,25 +6103,25 @@
         <v>611</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K72" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M72" s="5" t="s">
-        <v>667</v>
-      </c>
+      <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7" t="s">
-        <v>766</v>
+        <v>687</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6220,25 +6150,25 @@
         <v>612</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K73" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L73" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M73" s="5" t="s">
-        <v>719</v>
-      </c>
+      <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
       <c r="S73" s="7" t="s">
-        <v>767</v>
+        <v>732</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6276,18 +6206,16 @@
         <v>9</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>721</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7" t="s">
-        <v>767</v>
+        <v>733</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6325,18 +6253,16 @@
         <v>9</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>667</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="7" t="s">
-        <v>767</v>
+        <v>734</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6365,25 +6291,25 @@
         <v>617</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K76" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M76" s="5" t="s">
-        <v>667</v>
-      </c>
+      <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="7" t="s">
-        <v>766</v>
+        <v>687</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6421,18 +6347,16 @@
         <v>8</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="M77" s="5" t="s">
-        <v>723</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6470,18 +6394,16 @@
         <v>9</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="M78" s="5" t="s">
-        <v>724</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7" t="s">
-        <v>767</v>
+        <v>736</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6519,18 +6441,16 @@
         <v>8</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="M79" s="5" t="s">
-        <v>725</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
       <c r="S79" s="7" t="s">
-        <v>766</v>
+        <v>737</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6568,18 +6488,16 @@
         <v>9</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="M80" s="5" t="s">
-        <v>726</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="7" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6610,21 +6528,21 @@
       <c r="I81" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="J81" s="5"/>
+      <c r="J81" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="K81" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L81" s="5"/>
-      <c r="M81" s="5" t="s">
-        <v>727</v>
-      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
       <c r="S81" s="7" t="s">
-        <v>550</v>
+        <v>739</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6662,18 +6580,16 @@
         <v>9</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="M82" s="5" t="s">
-        <v>707</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="7" t="s">
-        <v>766</v>
+        <v>722</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6704,21 +6620,21 @@
       <c r="I83" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="J83" s="5"/>
+      <c r="J83" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="K83" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L83" s="5"/>
-      <c r="M83" s="5" t="s">
-        <v>728</v>
-      </c>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="7" t="s">
-        <v>550</v>
+        <v>740</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6749,21 +6665,21 @@
       <c r="I84" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="J84" s="5"/>
+      <c r="J84" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="K84" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L84" s="5"/>
-      <c r="M84" s="5" t="s">
-        <v>729</v>
-      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="7" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6801,18 +6717,16 @@
         <v>9</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="M85" s="5" t="s">
-        <v>731</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="7" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6841,25 +6755,25 @@
         <v>579</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K86" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L86" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M86" s="5" t="s">
-        <v>732</v>
-      </c>
+      <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="7" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6888,25 +6802,25 @@
         <v>626</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K87" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L87" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M87" s="5" t="s">
-        <v>733</v>
-      </c>
+      <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
       <c r="S87" s="7" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
     </row>
     <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6937,21 +6851,21 @@
       <c r="I88" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="J88" s="5"/>
+      <c r="J88" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="K88" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L88" s="5"/>
-      <c r="M88" s="5" t="s">
-        <v>734</v>
-      </c>
+      <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="7" t="s">
-        <v>550</v>
+        <v>745</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6989,18 +6903,16 @@
         <v>9</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="M89" s="5" t="s">
-        <v>735</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="7" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7038,18 +6950,16 @@
         <v>9</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="M90" s="5" t="s">
-        <v>736</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="7" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7087,18 +6997,16 @@
         <v>9</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>733</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
       <c r="S91" s="7" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7136,18 +7044,16 @@
         <v>9</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>738</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="7" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7185,18 +7091,16 @@
         <v>9</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="M93" s="5" t="s">
-        <v>739</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
       <c r="S93" s="7" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7234,18 +7138,16 @@
         <v>9</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="M94" s="5" t="s">
-        <v>740</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="7" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7283,18 +7185,16 @@
         <v>9</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="M95" s="5" t="s">
-        <v>667</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
       <c r="S95" s="7" t="s">
-        <v>766</v>
+        <v>687</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7332,7 +7232,7 @@
         <v>9</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -7341,7 +7241,7 @@
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7370,25 +7270,25 @@
         <v>635</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K97" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M97" s="5" t="s">
-        <v>667</v>
-      </c>
+      <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
       <c r="S97" s="7" t="s">
-        <v>767</v>
+        <v>734</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7426,18 +7326,16 @@
         <v>8</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="M98" s="5" t="s">
-        <v>741</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
       <c r="S98" s="7" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7475,18 +7373,16 @@
         <v>9</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="M99" s="5" t="s">
-        <v>707</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
       <c r="S99" s="7" t="s">
-        <v>766</v>
+        <v>722</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7521,21 +7417,19 @@
         <v>614</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>742</v>
+        <v>679</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="M100" s="5" t="s">
-        <v>744</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="7" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7575,16 +7469,14 @@
       <c r="L101" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="M101" s="5" t="s">
-        <v>745</v>
-      </c>
+      <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="7" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7622,18 +7514,16 @@
         <v>9</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="M102" s="5" t="s">
-        <v>746</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
       <c r="S102" s="7" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7662,9 +7552,11 @@
         <v>641</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K103" s="5" t="s">
         <v>543</v>
       </c>
@@ -7678,7 +7570,7 @@
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
       <c r="S103" s="7" t="s">
-        <v>767</v>
+        <v>701</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7707,9 +7599,11 @@
         <v>642</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K104" s="5" t="s">
         <v>543</v>
       </c>
@@ -7723,7 +7617,7 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="7" t="s">
-        <v>767</v>
+        <v>701</v>
       </c>
     </row>
     <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7761,18 +7655,16 @@
         <v>9</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="M105" s="5" t="s">
-        <v>748</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="M105" s="5"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
       <c r="S105" s="7" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7801,9 +7693,11 @@
         <v>645</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K106" s="5" t="s">
         <v>543</v>
       </c>
@@ -7817,7 +7711,7 @@
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
       <c r="S106" s="7" t="s">
-        <v>767</v>
+        <v>701</v>
       </c>
     </row>
     <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7855,7 +7749,7 @@
         <v>9</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -7864,7 +7758,7 @@
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
       <c r="S107" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="108" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7902,18 +7796,16 @@
         <v>9</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="M108" s="5" t="s">
-        <v>749</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
       <c r="S108" s="7" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7942,9 +7834,11 @@
         <v>648</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K109" s="5" t="s">
         <v>543</v>
       </c>
@@ -7958,7 +7852,7 @@
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
       <c r="S109" s="7" t="s">
-        <v>767</v>
+        <v>701</v>
       </c>
     </row>
     <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7987,9 +7881,11 @@
         <v>649</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K110" s="5" t="s">
         <v>543</v>
       </c>
@@ -8003,7 +7899,7 @@
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
       <c r="S110" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8032,9 +7928,11 @@
         <v>650</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J111" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K111" s="5" t="s">
         <v>543</v>
       </c>
@@ -8048,7 +7946,7 @@
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
       <c r="S111" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8086,18 +7984,16 @@
         <v>8</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="M112" s="5" t="s">
-        <v>750</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
       <c r="S112" s="7" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8135,18 +8031,16 @@
         <v>9</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="M113" s="5" t="s">
-        <v>751</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
       <c r="S113" s="7" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8184,7 +8078,7 @@
         <v>8</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -8193,7 +8087,7 @@
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
       <c r="S114" s="7" t="s">
-        <v>767</v>
+        <v>701</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8231,18 +8125,16 @@
         <v>9</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="M115" s="5" t="s">
-        <v>752</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
       <c r="S115" s="7" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8277,10 +8169,10 @@
         <v>541</v>
       </c>
       <c r="K116" s="5" t="s">
-        <v>742</v>
+        <v>679</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>753</v>
+        <v>682</v>
       </c>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
@@ -8289,7 +8181,7 @@
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
       <c r="S116" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8324,21 +8216,19 @@
         <v>614</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>742</v>
+        <v>679</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="M117" s="5" t="s">
-        <v>754</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
       <c r="S117" s="7" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8376,18 +8266,16 @@
         <v>9</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="M118" s="5" t="s">
-        <v>755</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="7" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8425,7 +8313,7 @@
         <v>9</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -8434,7 +8322,7 @@
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
       <c r="S119" s="7" t="s">
-        <v>767</v>
+        <v>701</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8472,18 +8360,16 @@
         <v>8</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="M120" s="5" t="s">
-        <v>756</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
       <c r="S120" s="7" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8514,21 +8400,21 @@
       <c r="I121" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="J121" s="5"/>
+      <c r="J121" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="K121" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L121" s="5"/>
-      <c r="M121" s="5" t="s">
-        <v>757</v>
-      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
       <c r="S121" s="7" t="s">
-        <v>550</v>
+        <v>763</v>
       </c>
     </row>
     <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8566,18 +8452,16 @@
         <v>8</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="M122" s="5" t="s">
-        <v>758</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
       <c r="S122" s="7" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8615,18 +8499,16 @@
         <v>9</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="M123" s="5" t="s">
-        <v>759</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
       <c r="S123" s="7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8657,21 +8539,21 @@
       <c r="I124" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="J124" s="5"/>
+      <c r="J124" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="K124" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L124" s="5"/>
-      <c r="M124" s="5" t="s">
-        <v>760</v>
-      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
       <c r="S124" s="7" t="s">
-        <v>550</v>
+        <v>766</v>
       </c>
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8700,25 +8582,25 @@
         <v>658</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>560</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="K125" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L125" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="M125" s="5" t="s">
-        <v>719</v>
-      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
       <c r="S125" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8756,7 +8638,7 @@
         <v>9</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
@@ -8765,7 +8647,7 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8796,21 +8678,21 @@
       <c r="I127" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="J127" s="5"/>
+      <c r="J127" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="K127" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L127" s="5"/>
-      <c r="M127" s="5" t="s">
-        <v>761</v>
-      </c>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
       <c r="S127" s="7" t="s">
-        <v>550</v>
+        <v>768</v>
       </c>
     </row>
     <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8848,18 +8730,16 @@
         <v>9</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="M128" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
       <c r="S128" s="7" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8890,21 +8770,21 @@
       <c r="I129" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="J129" s="5"/>
+      <c r="J129" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="K129" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L129" s="5"/>
-      <c r="M129" s="5" t="s">
-        <v>764</v>
-      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
       <c r="S129" s="7" t="s">
-        <v>550</v>
+        <v>770</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8935,21 +8815,21 @@
       <c r="I130" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="J130" s="5"/>
+      <c r="J130" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="K130" s="5" t="s">
         <v>550</v>
       </c>
       <c r="L130" s="5"/>
-      <c r="M130" s="5" t="s">
-        <v>765</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
       <c r="S130" s="7" t="s">
-        <v>550</v>
+        <v>771</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8987,7 +8867,7 @@
         <v>9</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
@@ -8996,7 +8876,7 @@
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
       <c r="S131" s="7" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
